--- a/ゼミ課題11月期_植田配布/files/課題２/出席簿_一般生_20201001～.xlsx
+++ b/ゼミ課題11月期_植田配布/files/課題２/出席簿_一般生_20201001～.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.110.240\share\教務構成管理\02_Doc\88_2020年度計画\98_生活指導\02_出席率\一般生\大橋校\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19002\Documents\UiPath\ゼミ課題11月期_植田配布\files\課題２\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">一般1年生!$A:$V</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">一般2年生!$A$1:$AC$46</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1601,7 +1601,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -7219,12 +7219,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G7" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
@@ -7357,7 +7357,7 @@
       </c>
       <c r="AD3" s="58"/>
     </row>
-    <row r="4" spans="1:30" ht="27" hidden="1" customHeight="1">
+    <row r="4" spans="1:30" ht="27" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -7640,7 +7640,7 @@
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
     </row>
-    <row r="9" spans="1:30" ht="18" hidden="1" customHeight="1">
+    <row r="9" spans="1:30" ht="18" customHeight="1">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -7697,7 +7697,7 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:30" ht="27" hidden="1" customHeight="1">
+    <row r="10" spans="1:30" ht="27" customHeight="1">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -7980,7 +7980,7 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
     </row>
-    <row r="15" spans="1:30" ht="18.75" hidden="1">
+    <row r="15" spans="1:30" ht="18.75">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -8094,7 +8094,7 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
     </row>
-    <row r="17" spans="1:29" ht="18.75" hidden="1">
+    <row r="17" spans="1:29" ht="18.75">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -8263,7 +8263,7 @@
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="19.5" hidden="1" customHeight="1">
+    <row r="20" spans="1:29" ht="19.5" customHeight="1">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -8375,7 +8375,7 @@
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="18.75" hidden="1">
+    <row r="22" spans="1:29" ht="18.75">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -8432,7 +8432,7 @@
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
     </row>
-    <row r="23" spans="1:29" ht="18.75" hidden="1">
+    <row r="23" spans="1:29" ht="18.75">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -9341,19 +9341,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AA23">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="新開"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AA23"/>
   <sortState ref="B4:F23">
     <sortCondition ref="B4"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="34" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -11514,6 +11508,6 @@
   <autoFilter ref="A3:AC3"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="37" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>